--- a/msp430fr5969_design_spreadsheet.xlsx
+++ b/msp430fr5969_design_spreadsheet.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="12105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pinout_start" sheetId="1" r:id="rId1"/>
     <sheet name="pinout_table" sheetId="2" r:id="rId2"/>
-    <sheet name="time_slots" sheetId="3" r:id="rId3"/>
-    <sheet name="FIFO" sheetId="4" r:id="rId4"/>
+    <sheet name="Dev Board" sheetId="5" r:id="rId3"/>
+    <sheet name="time_slots" sheetId="3" r:id="rId4"/>
+    <sheet name="FIFO" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="203">
   <si>
     <t>P1.0</t>
   </si>
@@ -514,6 +515,123 @@
   </si>
   <si>
     <t>WR_RST_BUSY</t>
+  </si>
+  <si>
+    <t>J4-1</t>
+  </si>
+  <si>
+    <t>J4-2</t>
+  </si>
+  <si>
+    <t>J4-3</t>
+  </si>
+  <si>
+    <t>J4-4</t>
+  </si>
+  <si>
+    <t>J4-5</t>
+  </si>
+  <si>
+    <t>J4-6</t>
+  </si>
+  <si>
+    <t>J4-7</t>
+  </si>
+  <si>
+    <t>J4-8</t>
+  </si>
+  <si>
+    <t>J4-9</t>
+  </si>
+  <si>
+    <t>J4-10</t>
+  </si>
+  <si>
+    <t>J5-11</t>
+  </si>
+  <si>
+    <t>J5-12</t>
+  </si>
+  <si>
+    <t>J5-13</t>
+  </si>
+  <si>
+    <t>J5-14</t>
+  </si>
+  <si>
+    <t>J5-15</t>
+  </si>
+  <si>
+    <t>J5-16</t>
+  </si>
+  <si>
+    <t>J5-17</t>
+  </si>
+  <si>
+    <t>J5-18</t>
+  </si>
+  <si>
+    <t>J5-19</t>
+  </si>
+  <si>
+    <t>J5-20</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>J6-R3-LED1</t>
+  </si>
+  <si>
+    <t>R6-LED2</t>
+  </si>
+  <si>
+    <t>JTAG</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>UART</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>RTS</t>
+  </si>
+  <si>
+    <t>CTS</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>J21</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>S3</t>
   </si>
 </sst>
 </file>
@@ -718,13 +836,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="7"/>
@@ -762,7 +883,23 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__1" displayName="__Anonymous_Sheet_DB__1" ref="C4:O52" totalsRowShown="0">
-  <autoFilter ref="C4:O52"/>
+  <autoFilter ref="C4:O52">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="TB0.0"/>
+        <filter val="TB0.1"/>
+        <filter val="TB0.2"/>
+        <filter val="TB0.3"/>
+        <filter val="TB0.4"/>
+        <filter val="TB0.5"/>
+        <filter val="TB0.6"/>
+        <filter val="TB0OUTH"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="C5:O52">
+    <sortCondition ref="D4:D52"/>
+  </sortState>
   <tableColumns count="13">
     <tableColumn id="1" name="Pin"/>
     <tableColumn id="2" name="GPIO"/>
@@ -1047,7 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1772,7 +1909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:O52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="C25:J27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1822,7 +1961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:15">
+    <row r="5" spans="3:15" hidden="1">
       <c r="C5" s="1">
         <v>1</v>
       </c>
@@ -1855,7 +1994,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="3:15">
+    <row r="6" spans="3:15" hidden="1">
       <c r="C6" s="1">
         <v>2</v>
       </c>
@@ -1888,7 +2027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="3:15">
+    <row r="7" spans="3:15" hidden="1">
       <c r="C7" s="1">
         <v>3</v>
       </c>
@@ -1898,7 +2037,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1917,314 +2058,346 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="3:15">
+    <row r="8" spans="3:15" hidden="1">
       <c r="C8" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="M8" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="3:15">
       <c r="C9" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="M9" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="3:15">
       <c r="C10" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="M10" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="3:15">
       <c r="C11" s="1">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="H11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="3:15">
       <c r="C12" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="3:15">
       <c r="C13" s="1">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="L13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="3:15">
       <c r="C14" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="L14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="3:15">
       <c r="C15" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
         <v>45</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="3:15">
+    <row r="16" spans="3:15" hidden="1">
       <c r="C16" s="1">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="N16" s="2" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="3:15">
+    <row r="17" spans="3:15" hidden="1">
       <c r="C17" s="1">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="N17" s="2" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="3:15">
       <c r="C18" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="3:15">
       <c r="C19" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="3:15">
+    <row r="20" spans="3:15" hidden="1">
       <c r="C20" s="1">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2234,39 +2407,41 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="3:15">
+    <row r="21" spans="3:15" hidden="1">
       <c r="C21" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="3:15">
+    <row r="22" spans="3:15" hidden="1">
       <c r="C22" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2277,17 +2452,19 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="3:15">
+    <row r="23" spans="3:15" hidden="1">
       <c r="C23" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2298,100 +2475,104 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="3:15">
+    <row r="24" spans="3:15" hidden="1">
       <c r="C24" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="3:15">
       <c r="C25" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="3:15">
       <c r="C26" s="1">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="J26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="3:15">
       <c r="C27" s="1">
-        <v>23</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="J27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -2399,133 +2580,119 @@
     </row>
     <row r="28" spans="3:15">
       <c r="C28" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="3:15">
+    <row r="29" spans="3:15" hidden="1">
       <c r="C29" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="3:15">
+    <row r="30" spans="3:15" hidden="1">
       <c r="C30" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="3:15">
+    <row r="31" spans="3:15" hidden="1">
       <c r="C31" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="M31" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="3:15">
+    <row r="32" spans="3:15" hidden="1">
       <c r="C32" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="M32" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="O32" s="2"/>
     </row>
     <row r="33" spans="3:15">
       <c r="C33" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2541,168 +2708,184 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="3:15">
+    <row r="34" spans="3:15" hidden="1">
       <c r="C34" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="3:15">
+    <row r="35" spans="3:15" hidden="1">
       <c r="C35" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="3:15">
+    <row r="36" spans="3:15" hidden="1">
       <c r="C36" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="3:15">
       <c r="C37" s="1">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K37" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="N37" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="3:15">
+    <row r="38" spans="3:15" hidden="1">
       <c r="C38" s="1">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="K38" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="N38" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="3:15">
+    <row r="39" spans="3:15" hidden="1">
       <c r="C39" s="1">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="3:15">
+    <row r="40" spans="3:15" hidden="1">
       <c r="C40" s="1">
-        <v>36</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="E40" s="2" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="3:15">
+    <row r="41" spans="3:15" hidden="1">
       <c r="C41" s="1">
-        <v>37</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -2713,15 +2896,17 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="3:15">
+    <row r="42" spans="3:15" hidden="1">
       <c r="C42" s="1">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -2732,111 +2917,101 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="3:15">
+    <row r="43" spans="3:15" hidden="1">
       <c r="C43" s="1">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="3:15">
+    <row r="44" spans="3:15" hidden="1">
       <c r="C44" s="1">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="3:15">
+    <row r="45" spans="3:15" hidden="1">
       <c r="C45" s="1">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="K45" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="3:15">
+    <row r="46" spans="3:15" hidden="1">
       <c r="C46" s="1">
-        <v>42</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E46" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="F46" s="2" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="K46" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="3:15">
+    <row r="47" spans="3:15" hidden="1">
       <c r="C47" s="1">
-        <v>43</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -2847,13 +3022,13 @@
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="3:15">
+    <row r="48" spans="3:15" hidden="1">
       <c r="C48" s="1">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2866,17 +3041,15 @@
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="3:15">
+    <row r="49" spans="3:15" hidden="1">
       <c r="C49" s="1">
-        <v>45</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -2887,17 +3060,15 @@
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="3:15">
+    <row r="50" spans="3:15" hidden="1">
       <c r="C50" s="1">
-        <v>46</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -2908,7 +3079,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="3:15">
+    <row r="51" spans="3:15" hidden="1">
       <c r="C51" s="1">
         <v>47</v>
       </c>
@@ -2927,7 +3098,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="3:15">
+    <row r="52" spans="3:15" hidden="1">
       <c r="C52" s="1">
         <v>48</v>
       </c>
@@ -2947,6 +3118,9 @@
       <c r="O52" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="L61:M80">
+    <sortCondition ref="M61"/>
+  </sortState>
   <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
@@ -2960,6 +3134,367 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G13:O40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="7:14">
+      <c r="G13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13" t="s">
+        <v>191</v>
+      </c>
+      <c r="L13" t="s">
+        <v>192</v>
+      </c>
+      <c r="M13" t="s">
+        <v>198</v>
+      </c>
+      <c r="N13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="7:14">
+      <c r="G14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14">
+        <v>23</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="7:14">
+      <c r="G15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15">
+        <v>22</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="7:14">
+      <c r="G16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="7:15">
+      <c r="G17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="7:15">
+      <c r="G18" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18">
+        <v>13</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="7:15">
+      <c r="G19" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19">
+        <v>12</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:15">
+      <c r="G20" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="7:15">
+      <c r="G21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" t="s">
+        <v>198</v>
+      </c>
+      <c r="N21" t="s">
+        <v>199</v>
+      </c>
+      <c r="O21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="7:15">
+      <c r="G22" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" t="s">
+        <v>194</v>
+      </c>
+      <c r="L22">
+        <v>25</v>
+      </c>
+      <c r="M22">
+        <v>14</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="7:15">
+      <c r="K23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L23">
+        <v>24</v>
+      </c>
+      <c r="M23">
+        <v>12</v>
+      </c>
+      <c r="N23">
+        <v>6</v>
+      </c>
+      <c r="O23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="7:15">
+      <c r="G24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24">
+        <v>17</v>
+      </c>
+      <c r="M24">
+        <v>13</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="O24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="7:15">
+      <c r="G25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" t="s">
+        <v>197</v>
+      </c>
+      <c r="L25">
+        <v>16</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="7:15">
+      <c r="G26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="7:15">
+      <c r="G27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="7:15">
+      <c r="G28" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="7:15">
+      <c r="G29" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="7:15">
+      <c r="G30" t="s">
+        <v>180</v>
+      </c>
+      <c r="H30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="7:15">
+      <c r="G31" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="7:15">
+      <c r="G32" t="s">
+        <v>182</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8">
+      <c r="G33" t="s">
+        <v>183</v>
+      </c>
+      <c r="H33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8">
+      <c r="G35" t="s">
+        <v>187</v>
+      </c>
+      <c r="H35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8">
+      <c r="G36" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8">
+      <c r="G37" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8">
+      <c r="G38" t="s">
+        <v>190</v>
+      </c>
+      <c r="H38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8">
+      <c r="G40" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4157,7 +4692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F7:F15"/>
   <sheetViews>

--- a/msp430fr5969_design_spreadsheet.xlsx
+++ b/msp430fr5969_design_spreadsheet.xlsx
@@ -14,16 +14,17 @@
   <sheets>
     <sheet name="pinout_start" sheetId="1" r:id="rId1"/>
     <sheet name="pinout_table" sheetId="2" r:id="rId2"/>
-    <sheet name="Dev Board" sheetId="5" r:id="rId3"/>
-    <sheet name="time_slots" sheetId="3" r:id="rId4"/>
-    <sheet name="FIFO" sheetId="4" r:id="rId5"/>
+    <sheet name="pinout_table_assignment" sheetId="6" r:id="rId3"/>
+    <sheet name="Dev Board" sheetId="5" r:id="rId4"/>
+    <sheet name="time_slots" sheetId="3" r:id="rId5"/>
+    <sheet name="FIFO" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="206">
   <si>
     <t>P1.0</t>
   </si>
@@ -632,6 +633,15 @@
   </si>
   <si>
     <t>S3</t>
+  </si>
+  <si>
+    <t>RED LED</t>
+  </si>
+  <si>
+    <t>GRN LED</t>
+  </si>
+  <si>
+    <t>ASSIGNED</t>
   </si>
 </sst>
 </file>
@@ -726,7 +736,7 @@
       <name val="Liberation Sans"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -773,6 +783,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -836,7 +864,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -844,6 +872,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -868,7 +908,27 @@
     <cellStyle name="Text" xfId="17"/>
     <cellStyle name="Warning" xfId="18"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -882,21 +942,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__1" displayName="__Anonymous_Sheet_DB__1" ref="C4:O52" totalsRowShown="0">
-  <autoFilter ref="C4:O52">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="TB0.0"/>
-        <filter val="TB0.1"/>
-        <filter val="TB0.2"/>
-        <filter val="TB0.3"/>
-        <filter val="TB0.4"/>
-        <filter val="TB0.5"/>
-        <filter val="TB0.6"/>
-        <filter val="TB0OUTH"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__1" displayName="__Anonymous_Sheet_DB__1" ref="C4:P52" totalsRowShown="0">
+  <autoFilter ref="C4:P52"/>
+  <sortState ref="C5:P52">
+    <sortCondition ref="I4:I52"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Pin"/>
+    <tableColumn id="2" name="GPIO"/>
+    <tableColumn id="3" name="SPECIAL 1"/>
+    <tableColumn id="4" name="SPECIAL 2"/>
+    <tableColumn id="5" name="SPECIAL 3"/>
+    <tableColumn id="14" name="ASSIGNED" dataDxfId="0"/>
+    <tableColumn id="6" name="DEV BOARD"/>
+    <tableColumn id="7" name="TIMER 1"/>
+    <tableColumn id="8" name="TIMER 2"/>
+    <tableColumn id="9" name="COMM 1"/>
+    <tableColumn id="10" name="COMM 2"/>
+    <tableColumn id="11" name="ADC"/>
+    <tableColumn id="12" name="COMP"/>
+    <tableColumn id="13" name="COUT"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="__Anonymous_Sheet_DB__13" displayName="__Anonymous_Sheet_DB__13" ref="C4:O52" totalsRowShown="0">
+  <autoFilter ref="C4:O52"/>
   <sortState ref="C5:O52">
     <sortCondition ref="D4:D52"/>
   </sortState>
@@ -1184,7 +1257,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46:E50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1907,20 +1982,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:O52"/>
+  <dimension ref="C4:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="C25:J27"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="7" width="12.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="15" width="12.140625" customWidth="1"/>
+    <col min="8" max="16" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15">
+    <row r="4" spans="3:16">
       <c r="C4" s="1" t="s">
         <v>139</v>
       </c>
@@ -1937,31 +2012,34 @@
         <v>143</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:15" hidden="1">
+    <row r="5" spans="3:16">
       <c r="C5" s="1">
         <v>1</v>
       </c>
@@ -1977,980 +2055,1053 @@
       <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="3:15" hidden="1">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="3:16">
       <c r="C6" s="1">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="3:15" hidden="1">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="3:16">
       <c r="C7" s="1">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="3:15" hidden="1">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="3:16">
       <c r="C8" s="1">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="2" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="K8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="3:15">
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="3:16">
       <c r="C9" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="3:15">
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="3:16">
       <c r="C10" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="2"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="L10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="3:15">
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="3:16">
       <c r="C11" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>101</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="2" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="3:15">
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="3:16">
       <c r="C12" s="1">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>177</v>
-      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="3:16">
+      <c r="C13" s="1">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="3:15">
-      <c r="C13" s="1">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="3:15">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="3:16">
       <c r="C14" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="H14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="3:15">
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="3:16">
       <c r="C15" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="H15" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="3:15" hidden="1">
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="3:16">
       <c r="C16" s="1">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="I16" s="2" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="K16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="3:15" hidden="1">
+      <c r="P16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16">
       <c r="C17" s="1">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>169</v>
+      <c r="H17" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="K17" s="2"/>
-      <c r="L17" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>127</v>
+      <c r="L17" s="2"/>
+      <c r="M17" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="3:15">
+        <v>37</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="3:16">
       <c r="C18" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" s="1"/>
       <c r="K18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="3:15">
+        <v>40</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="3:16">
       <c r="C19" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" s="1"/>
       <c r="K19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="3:15" hidden="1">
+        <v>45</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="3:16">
       <c r="C20" s="1">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="H20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="3:15" hidden="1">
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="3:16">
       <c r="C21" s="1">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="H21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="3:15" hidden="1">
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="3:16">
       <c r="C22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="3:15" hidden="1">
+        <v>22</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="3:16">
       <c r="C23" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="L23" s="2"/>
-      <c r="M23" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="3:15" hidden="1">
+        <v>19</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16">
       <c r="C24" s="1">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="H24" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="3:15">
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="3:16">
       <c r="C25" s="1">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="H25" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="3:15">
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="3:16">
       <c r="C26" s="1">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="H26" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15">
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="3:16">
       <c r="C27" s="1">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
-        <v>173</v>
-      </c>
+      <c r="H27" s="6"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K27" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="3:15">
+      <c r="N27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16">
       <c r="C28" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="3:15" hidden="1">
+      <c r="N28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="3:16">
       <c r="C29" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="3:15" hidden="1">
+      <c r="M29" s="2"/>
+      <c r="N29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="3:16">
       <c r="C30" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="3:15" hidden="1">
+      <c r="M30" s="2"/>
+      <c r="N30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="3:16">
       <c r="C31" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="H31" s="6"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="3:15" hidden="1">
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="3:16">
       <c r="C32" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="H32" s="6"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="K32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="3:15">
+      <c r="O32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="3:16">
       <c r="C33" s="1">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="6"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="L33" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="3:15" hidden="1">
+      <c r="O33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="3:16">
       <c r="C34" s="1">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="6"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="3:15" hidden="1">
+      <c r="O34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="3:16">
       <c r="C35" s="1">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="6"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-    </row>
-    <row r="36" spans="3:15" hidden="1">
+      <c r="O35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="3:16">
       <c r="C36" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="6"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="N36" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="3:15">
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="3:16">
       <c r="C37" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O37" s="2"/>
-    </row>
-    <row r="38" spans="3:15" hidden="1">
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="3:16">
       <c r="C38" s="1">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="6"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="M38" s="2"/>
-      <c r="N38" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="3:15" hidden="1">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="3:16">
       <c r="C39" s="1">
-        <v>14</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="6"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="L39" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="3:15" hidden="1">
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="3:16">
       <c r="C40" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H40" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="J40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="3:15" hidden="1">
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="3:16">
       <c r="C41" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="H41" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
+      <c r="K41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="3:15" hidden="1">
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="3:16">
       <c r="C42" s="1">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="H42" s="6"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="K42" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="3:15" hidden="1">
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="3:16">
       <c r="C43" s="1">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="H43" s="6"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="K43" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-    </row>
-    <row r="44" spans="3:15" hidden="1">
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="3:16">
       <c r="C44" s="1">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="H44" s="6"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -2958,62 +3109,59 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-    </row>
-    <row r="45" spans="3:15" hidden="1">
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="3:16">
       <c r="C45" s="1">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="H45" s="6"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="3:15" hidden="1">
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="3:16">
       <c r="C46" s="1">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="H46" s="6"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="3:15" hidden="1">
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="3:16">
       <c r="C47" s="1">
-        <v>36</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="H47" s="6"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -3021,27 +3169,37 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-    </row>
-    <row r="48" spans="3:15" hidden="1">
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="3:16">
       <c r="C48" s="1">
-        <v>37</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="J48" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-    </row>
-    <row r="49" spans="3:15" hidden="1">
+      <c r="M48" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="3:16">
       <c r="C49" s="1">
         <v>41</v>
       </c>
@@ -3051,7 +3209,7 @@
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="H49" s="6"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -3059,8 +3217,9 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-    </row>
-    <row r="50" spans="3:15" hidden="1">
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="3:16">
       <c r="C50" s="1">
         <v>44</v>
       </c>
@@ -3070,7 +3229,7 @@
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="H50" s="6"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -3078,8 +3237,9 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-    </row>
-    <row r="51" spans="3:15" hidden="1">
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="3:16">
       <c r="C51" s="1">
         <v>47</v>
       </c>
@@ -3097,8 +3257,9 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="3:15" hidden="1">
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="3:16">
       <c r="C52" s="1">
         <v>48</v>
       </c>
@@ -3116,10 +3277,11 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="L61:M80">
-    <sortCondition ref="M61"/>
+  <sortState ref="M61:N80">
+    <sortCondition ref="N61"/>
   </sortState>
   <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
   <headerFooter>
@@ -3134,10 +3296,1234 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:O52"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="7" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="15" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:15">
+      <c r="C4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="3:15">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15">
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15">
+      <c r="C8" s="1">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="3:15">
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="3:15">
+      <c r="C10" s="1">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="3:15">
+      <c r="C11" s="1">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="3:15">
+      <c r="C12" s="1">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="3:15">
+      <c r="C13" s="1">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="3:15">
+      <c r="C14" s="1">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="3:15">
+      <c r="C15" s="1">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="3:15">
+      <c r="C16" s="1">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="3:15">
+      <c r="C17" s="1">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="3:15">
+      <c r="C18" s="1">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="3:15">
+      <c r="C19" s="1">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="3:15">
+      <c r="C20" s="1">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="3:15">
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="3:15">
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="3:15">
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="3:15">
+      <c r="C24" s="1">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="3:15">
+      <c r="C25" s="1">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="3:15">
+      <c r="C26" s="1">
+        <v>28</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15">
+      <c r="C27" s="1">
+        <v>29</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="3:15">
+      <c r="C28" s="1">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="3:15">
+      <c r="C29" s="1">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="3:15">
+      <c r="C30" s="1">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="3:15">
+      <c r="C31" s="1">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="3:15">
+      <c r="C32" s="1">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="3:15">
+      <c r="C33" s="1">
+        <v>33</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="3:15">
+      <c r="C34" s="1">
+        <v>34</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="3:15">
+      <c r="C35" s="1">
+        <v>35</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="3:15">
+      <c r="C36" s="1">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="3:15">
+      <c r="C37" s="1">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="3:15">
+      <c r="C38" s="1">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="3:15">
+      <c r="C39" s="1">
+        <v>14</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="3:15">
+      <c r="C40" s="1">
+        <v>15</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="3:15">
+      <c r="C41" s="1">
+        <v>45</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="3:15">
+      <c r="C42" s="1">
+        <v>46</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="3:15">
+      <c r="C43" s="1">
+        <v>42</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="3:15">
+      <c r="C44" s="1">
+        <v>43</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="3:15">
+      <c r="C45" s="1">
+        <v>22</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="3:15">
+      <c r="C46" s="1">
+        <v>23</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="3:15">
+      <c r="C47" s="1">
+        <v>36</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="3:15">
+      <c r="C48" s="1">
+        <v>37</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="3:15">
+      <c r="C49" s="1">
+        <v>41</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="3:15">
+      <c r="C50" s="1">
+        <v>44</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="3:15">
+      <c r="C51" s="1">
+        <v>47</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="3:15">
+      <c r="C52" s="1">
+        <v>48</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G13:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:H33"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H38" sqref="G38:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3493,7 +4879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G131"/>
   <sheetViews>
@@ -4692,7 +6078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F7:F15"/>
   <sheetViews>
